--- a/Ejemplos_Rutas.xlsx
+++ b/Ejemplos_Rutas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RJPC\TEC\Profesor-TEC\Microcontroladores y Microprocesadores\Proyecto\2do Semestre 2022\Rutas_Ejemplo_Evaluación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/jose1225pablo_estudiantec_cr/Documents/TEC/2022/MICROS/ProyectoMicros2022_Grupo1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3528DC27-2EFC-4FAA-A2E3-90A310B2FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3528DC27-2EFC-4FAA-A2E3-90A310B2FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB9AF45-58FF-4FA3-A1A6-4B8E5BFDE7E7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modo 1" sheetId="1" r:id="rId1"/>
@@ -614,11 +614,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
@@ -687,20 +687,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455002C1-BD52-4642-AA92-5AD7C11C85FF}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="14">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="15"/>
       <c r="C3" s="9">
@@ -724,7 +724,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
